--- a/sheets/DISAR - edward raczynski - 1814 ISTANBUL VE CANAKKALE SEYAHAT - Seher.xlsx
+++ b/sheets/DISAR - edward raczynski - 1814 ISTANBUL VE CANAKKALE SEYAHAT - Seher.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t xml:space="preserve">Tarih (Yıl – Ay-Gün)</t>
   </si>
@@ -52,31 +52,40 @@
     <t xml:space="preserve">Etiket</t>
   </si>
   <si>
-    <t xml:space="preserve">1814-09-07</t>
+    <t xml:space="preserve">1814-08-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 Ağustos günü Beyoğlunda yeniden veba salgını başgösterdi. 24 saat içinde, fransız büyükelçiliğinin bitişiğindeki evde oturanların çoğu öldü. Bu hadise, bana, farklı bir eğitimin getirdiği çeşitli düşünceleri tanıma fırsatı verdi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">İstanbul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1814'de İstanbul ve Çanakkale'ye Seyahat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edward Raczynski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tercüman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1814-09-7</t>
   </si>
   <si>
     <t xml:space="preserve">7 Eylül günü rüzgâr yön değiştirerek güneyden esmeye başladı. Türklerin samyeli adını verdikleri bu rüzgâra Avrupa'da Scirocco deniyor. Termometre öğleye doğru 26 dereceyi gösteriyordu. Bu kadar sıcağa alışık olmadığımdan bana dayanamayacakmışım gibi geldi. Havayı bunaltan Scirocco, insanın sinirlerini de geri yordu.İlkbahar ve yaz aylarında daima kuzeyden, sonbaharda ise, güneyden esen Marmara ve Karadeniz rüzgârlarının değişmeyen yönü, meteorologlar için oldukça önemlidir. Musonlara benzeyen bu rüzgârlar, deniz se ferlerini kolaylaştırıyor. Tüccarlar, Odesa’dan İstanbul'a gidip gelmek için gemilerinin rotasını rüzgârın yönü ne göre ayarlıyorlar. İstanbul'da sıcaklığın aniden değişmesi, günde üç defa yağmur yağması, insanın hoşuna gidiyor. Bu değişken iklime yabancılar alışık değildir. Buna mukabil Türkler, yaşlansalar da sıhhatlerin den bir şey kaybetmiyorlar. Talihli oluşları, bence, yerken ve içerken aza kanâat etmelerinden ve daha çok hayatta başlarına gelen acılara katlanmasını bilmelerinden ileri geliyor.</t>
   </si>
   <si>
-    <t xml:space="preserve">İstanbul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1814'de İstanbul ve Çanakkale'ye Seyahat </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edward Raczynski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tercüman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 C' Sıcak, Rüzgar, </t>
+    <t xml:space="preserve">26 C', Rüzgar, Sıcak</t>
   </si>
   <si>
     <t xml:space="preserve">7  Eylül günü .. Üsküdar yakınındaki vadiler, çimenler, oğul otları ve etrafı dolduran mis kokulu fundalıklara bürünmüş. Meyveler Üsküdar'da birkaç hafta erken olgunlaşıyor. Kış burada, başşehrin diğer semtlerine nazaran daha az sert geçiyor. Akbaba'dan Beykoz'a geçtim. ..Burayı sıcak öğle saatlerinde kanepelerde dinlenen Türkler doldurmuş.</t>
   </si>
   <si>
-    <t xml:space="preserve">sıcak</t>
+    <t xml:space="preserve">sıcaklık, iklim bilgisi</t>
   </si>
   <si>
     <t xml:space="preserve">1814-09-10</t>
@@ -86,6 +95,23 @@
   </si>
   <si>
     <t xml:space="preserve">Kuzey rüzgarı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?-?-?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veba salgını karşısında ölüm korkusuna kapılan Avrupalılar, şehri bir an evvel terketmeye çalışır ya da evlerine kapanarak tanıdıklarıyla ilişkilerini keserler. İstanbul’da yıllarca oturan yabancılar bile tehlike karşısında kayıtsız kalamıyorlardır. Oysa Türkler kaza ve kadere inandıklarından böyle bir tehlike karşısında telaşa kapılmayarakişlerine devam ediyorlardır.
+Bu kötü hastalığa aldırmayan Müslümanları, sonu ölümle biten felaketler bekliyor. Hükümet de hastalığa karşı önleyici tedbirler almıyor. Türkler meseleye başka açıdan bakıyorlar. Onlar, insanların alınyazısına Allah’ın dokunmadığına inanıyorlar. İslam anlayışına göre,, Allah, dinin bir prensibi olarak kaza ve kadere inanmalarını emrediyor. Bir insanın mutlu olabilmesi için mutlaka şu iki şeyden birinin mevcudiyeti şarttır: Birincisi başına bir felaket gelmemesi, ikincisi, mümkün olduğu kadar kalben huzur içinde bulunması . ilki herşeye kadir olan Allah’a mahsustur. İkincisine gelince, Müslümanlar kaza ve kadere inanmanın Stoa’nın dogmalarına inanmaktan daha sağlam olduğunu söylüyorlar.
+Şarklı metafizikçilerin bu görüşünün ne teferruatına girmek ne de yanlışlığını ortaya koymak niyetindeyim. Yalnız şu var ki, Müslümanların en acılı günlerinde bile kendilerine hakim olabildiklerine hayran kaldığımı burada belirtmeeden geçemeyeceğim. Sıhhatini kaybeden, malından olan, bulaşıcı bir hastalığa tutularak kurtuluş ümidi bulunmayan Müslüman, bunun bir alınyazısı olduğuna inanır. Bu halde dua etmek, verilen hükmü değiştirmez. Şikayette bulunmak ise, akılsızlıktır. O sadece Allah’a tevekkül eder ve sorana, kısmet deyip geçer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulaşıcı hastalığın çıktığı Avrupa şehirlerinde polis, ölenin geride bıraktığı eşyalarının ve elbiselerinin derhal yakılmasını sağlar. Türkler ise, bunları hiç düşünmeden alarak havalandırmaksızın kullanıyorlar. Bu tedbirsizlik bulaşıcı hastalığın yayılmasına sebep oluyor. Çünkü pamuklu, yünlü kumaşlar, mikropları uzun zaman muhafza edebiliyor. Birkaç şal satın almak için girdiğim dükkanlarda bulunmamakla beraber, bir Türk’ün dediği gibi değişmez kaderin tecellisine maruz kalabilirdim. 
+Eşyalarla çabuk yayılan vebayı istanbul’a getiren, İskenderiye’den ticari eşya taşıyan Mısır gemileridir. Önce Fransızlar daha sonra İngilizler ve Mısırlılar İskenderiye’de karantina müessesi kurdukları için dört ya da beş sene süre ile şehirde vebaya hiç rastlanmamıştı.  
+Türk hükümeti salgın hastalığa karşı önleyici tedbir almaksızın bu duruma seyirci kalıyor. Divân’ın bu şekilde davranması, heralde Müslümanların İslamiyetin esas dogması kabul ettikleri Kur’an’ın şu ayetinden(!) ileri geliyor; “Ben Allah’a , meleklerine, kitabına, peygamberlerine , hayra ve şerre inanıyorum.” 
+Ulema yukarıdaki ayetin yanlış tefsir edildiğini ve yukarıda olduğu gibi herhangi bir şeye körü körüne inanarak hayatlarındnan olan insanlara acıyor. Bu hususta halkın ve padişahın düşünce tarzı dinin ruhu ile tezat teşkil etmektedir. Hz. Muhammed’den sonra yerine geçen halifeler ve önceki Osmanlı padişahları bu türlü batıl inançlara ter vermemişlerdi. …..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…… İstanbul’da birkaç sene önce alınan tedbirlere bakılırsa , şimdiki padişah II. Mahmut’un, halkı ölümle yüzyüze getiren bu batıl itikattan vazgeçmek niyetinde olduğu anlaşılıyor. Sultan, 183 yılında İstanbul’da veba salgını devam ederken hastaları Üsküdar’da özel olarak yaptırılan hastanelere taşıtmış ayrıca bir fermanla da İslam dinin bu konudaki akidlerini halkına bildirmişti. Bu hareket İstanbul’da bir karantina kurulması için atılan ilk adımdır. Halk batıl inançlarında ısrar ettiği sürece amme menfaatine açılan bu kuruluş ne yazık ki, tesirli olamıyordu.</t>
   </si>
 </sst>
 </file>
@@ -94,9 +120,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -137,26 +163,31 @@
       <charset val="162"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="162"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="162"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +198,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4F81BD"/>
         <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
@@ -211,7 +248,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -248,8 +285,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -264,36 +305,52 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -379,8 +436,8 @@
   </sheetPr>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -426,191 +483,244 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+    <row r="2" customFormat="false" ht="39.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="12" t="n">
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1980</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="16" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="13" t="n">
         <v>72</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="12" t="n">
-        <v>1980</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="12" t="n">
-        <v>72</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="12" t="n">
+      <c r="H3" s="14" t="n">
         <v>1980</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10" t="s">
+    </row>
+    <row r="4" s="16" customFormat="true" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="12" t="n">
-        <v>77</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="13" t="n">
+        <v>72</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="12" t="n">
+      <c r="H4" s="14" t="n">
         <v>1980</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+    <row r="5" s="16" customFormat="true" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="13" t="n">
+        <v>77</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="14" t="n">
+        <v>1980</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="21" t="n">
+        <v>54</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="20" t="n">
+        <v>1980</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="82" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="21" t="n">
+        <v>55</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="20" t="n">
+        <v>1980</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
-      <c r="M11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21"/>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="0"/>
-      <c r="M12" s="0"/>
+      <c r="A8" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="20" t="n">
+        <v>56</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="21" t="n">
+        <v>1980</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="39.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" s="16" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" s="16" customFormat="true" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" s="16" customFormat="true" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
       <c r="D13" s="0"/>
@@ -625,7 +735,7 @@
       <c r="M13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
       <c r="D14" s="0"/>
@@ -640,7 +750,7 @@
       <c r="M14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
       <c r="D15" s="0"/>
@@ -655,7 +765,7 @@
       <c r="M15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
       <c r="D16" s="0"/>
@@ -670,7 +780,7 @@
       <c r="M16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
       <c r="D17" s="0"/>
@@ -685,7 +795,7 @@
       <c r="M17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
       <c r="D18" s="0"/>
@@ -700,7 +810,7 @@
       <c r="M18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
       <c r="D19" s="0"/>
@@ -715,7 +825,7 @@
       <c r="M19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
       <c r="D20" s="0"/>
@@ -730,7 +840,7 @@
       <c r="M20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
       <c r="D21" s="0"/>
@@ -745,7 +855,7 @@
       <c r="M21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
       <c r="D22" s="0"/>
@@ -760,7 +870,7 @@
       <c r="M22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
       <c r="D23" s="0"/>
@@ -775,7 +885,7 @@
       <c r="M23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
       <c r="D24" s="0"/>
@@ -790,7 +900,7 @@
       <c r="M24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
       <c r="D25" s="0"/>
@@ -805,7 +915,7 @@
       <c r="M25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
       <c r="D26" s="0"/>
@@ -820,7 +930,7 @@
       <c r="M26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
       <c r="D27" s="0"/>
@@ -835,7 +945,7 @@
       <c r="M27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
       <c r="D28" s="0"/>
